--- a/biology/Zoologie/Faune_synanthrope/Faune_synanthrope.xlsx
+++ b/biology/Zoologie/Faune_synanthrope/Faune_synanthrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste de la faune synanthrope.  Pour plus d’explications, voir l'article Anthropophilie.
 </t>
@@ -511,7 +523,9 @@
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Blaireau européen
@@ -522,7 +536,7 @@
 Lapin de garenne
 pipistrelle commune
 porc (en Inde)
-léopard (en Inde)[1],[2]
+léopard (en Inde),
 rat gris
 rat noir
 renard roux (en Angleterre)
@@ -557,7 +571,9 @@
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acridotheres
@@ -625,7 +641,9 @@
           <t>Arachnides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>araignées « domestiques »</t>
         </is>
@@ -655,7 +673,9 @@
           <t>Insectes ou acariens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 le pou
@@ -664,7 +684,7 @@
 la mouche
 le poisson d'argent
 certaines espèces de moustiques tel qu'Aedes aegypti
-Frelon asiatique[3]
+Frelon asiatique
 Piéride du chou
 Piéride du navet
 Piéride du raifort
